--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.291738</v>
+        <v>0.955666</v>
       </c>
       <c r="H2">
-        <v>18.875214</v>
+        <v>2.866998</v>
       </c>
       <c r="I2">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="J2">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>132.641248155486</v>
+        <v>3.303035266045333</v>
       </c>
       <c r="R2">
-        <v>1193.771233399374</v>
+        <v>29.727317394408</v>
       </c>
       <c r="S2">
-        <v>0.03282645098000485</v>
+        <v>0.001673612463314541</v>
       </c>
       <c r="T2">
-        <v>0.03282645098000485</v>
+        <v>0.00167361246331454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.291738</v>
+        <v>0.955666</v>
       </c>
       <c r="H3">
-        <v>18.875214</v>
+        <v>2.866998</v>
       </c>
       <c r="I3">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="J3">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>1897.589116171716</v>
+        <v>288.2290076756786</v>
       </c>
       <c r="R3">
-        <v>17078.30204554544</v>
+        <v>2594.061069081108</v>
       </c>
       <c r="S3">
-        <v>0.469621003785957</v>
+        <v>0.1460425398704107</v>
       </c>
       <c r="T3">
-        <v>0.469621003785957</v>
+        <v>0.1460425398704107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.291738</v>
+        <v>0.955666</v>
       </c>
       <c r="H4">
-        <v>18.875214</v>
+        <v>2.866998</v>
       </c>
       <c r="I4">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="J4">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>290.270903467254</v>
+        <v>44.08988950794468</v>
       </c>
       <c r="R4">
-        <v>2612.438131205286</v>
+        <v>396.809005571502</v>
       </c>
       <c r="S4">
-        <v>0.07183710735607576</v>
+        <v>0.02233987306923428</v>
       </c>
       <c r="T4">
-        <v>0.07183710735607576</v>
+        <v>0.02233987306923427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>11.191811</v>
       </c>
       <c r="I5">
-        <v>0.3405145117553424</v>
+        <v>0.6638424218367511</v>
       </c>
       <c r="J5">
-        <v>0.3405145117553424</v>
+        <v>0.663842421836751</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>78.64789136485011</v>
+        <v>12.89395612550622</v>
       </c>
       <c r="R5">
-        <v>707.831022283651</v>
+        <v>116.045605129556</v>
       </c>
       <c r="S5">
-        <v>0.01946401429774407</v>
+        <v>0.006533228965161739</v>
       </c>
       <c r="T5">
-        <v>0.01946401429774407</v>
+        <v>0.006533228965161737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.191811</v>
       </c>
       <c r="I6">
-        <v>0.3405145117553424</v>
+        <v>0.6638424218367511</v>
       </c>
       <c r="J6">
-        <v>0.3405145117553424</v>
+        <v>0.663842421836751</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>1125.150620483078</v>
@@ -818,10 +818,10 @@
         <v>10126.3555843477</v>
       </c>
       <c r="S6">
-        <v>0.2784556252449755</v>
+        <v>0.57010172458774</v>
       </c>
       <c r="T6">
-        <v>0.2784556252449755</v>
+        <v>0.5701017245877398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.191811</v>
       </c>
       <c r="I7">
-        <v>0.3405145117553424</v>
+        <v>0.6638424218367511</v>
       </c>
       <c r="J7">
-        <v>0.3405145117553424</v>
+        <v>0.663842421836751</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>172.1123315690488</v>
@@ -880,10 +880,10 @@
         <v>1549.010984121439</v>
       </c>
       <c r="S7">
-        <v>0.04259487221262284</v>
+        <v>0.08720746828384951</v>
       </c>
       <c r="T7">
-        <v>0.04259487221262284</v>
+        <v>0.08720746828384947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.933443</v>
+        <v>0.9334429999999999</v>
       </c>
       <c r="H8">
         <v>2.800329</v>
       </c>
       <c r="I8">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="J8">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>19.67867139445433</v>
+        <v>3.226226681542666</v>
       </c>
       <c r="R8">
-        <v>177.108042550089</v>
+        <v>29.03604013388399</v>
       </c>
       <c r="S8">
-        <v>0.00487013618210559</v>
+        <v>0.001634694379201222</v>
       </c>
       <c r="T8">
-        <v>0.00487013618210559</v>
+        <v>0.001634694379201221</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.933443</v>
+        <v>0.9334429999999999</v>
       </c>
       <c r="H9">
         <v>2.800329</v>
       </c>
       <c r="I9">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="J9">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>281.5265475718593</v>
@@ -1004,10 +1004,10 @@
         <v>2533.738928146734</v>
       </c>
       <c r="S9">
-        <v>0.06967302812624669</v>
+        <v>0.1426464753839268</v>
       </c>
       <c r="T9">
-        <v>0.06967302812624669</v>
+        <v>0.1426464753839267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.933443</v>
+        <v>0.9334429999999999</v>
       </c>
       <c r="H10">
         <v>2.800329</v>
       </c>
       <c r="I10">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="J10">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
-        <v>43.06462585460234</v>
+        <v>43.06462585460233</v>
       </c>
       <c r="R10">
-        <v>387.5816326914211</v>
+        <v>387.581632691421</v>
       </c>
       <c r="S10">
-        <v>0.01065776181426776</v>
+        <v>0.0218203829971614</v>
       </c>
       <c r="T10">
-        <v>0.01065776181426776</v>
+        <v>0.0218203829971614</v>
       </c>
     </row>
   </sheetData>
